--- a/document/data source_課程資料/技高/skills_info/skills_info_數學B4.xlsx
+++ b/document/data source_課程資料/技高/skills_info/skills_info_數學B4.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\技高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25637" windowHeight="7089"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 這是這個系統的使用者主要會使用的部分 依功文數學的精" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 這是這個系統的使用者主要會使用的部分 依功文數學的精" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「母體」是全體，「樣本」是從母體中抽出的部分。</t>
-  </si>
-  <si>
     <t>stats_chart_reading</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練閱讀長條圖、折線圖、圓餅圖的數據。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查圖表的「標題」與「單位」，並正確讀取對應的數值。</t>
-  </si>
-  <si>
     <t>stats_freq_dist_table</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練將原始數據登錄於次數分配表（包含組距、組中點）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查「組距」的劃分是否正確，並確認「組中點」= (上限 + 下限) / 2。</t>
-  </si>
-  <si>
     <t>stats_histogram_plot</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>handwriting</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生「直方圖」的 x 軸是「連續」的數據（組距），長條之間沒有空隙。</t>
-  </si>
-  <si>
     <t>stats_cumulative_freq</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>熟練製作「以下累積次數」與「以上累積次數」分配表。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「以下累積」是從最小組開始累加，「以上累積」是從最大組開始累加。</t>
-  </si>
-  <si>
     <t>stats_stem_leaf_plot</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>熟練製作與閱讀莖葉圖。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生正確劃分「莖」（高位數）與「葉」（低位數），並將「葉」由小到大排序。</t>
-  </si>
-  <si>
     <t>stats_mean_calc_ungrouped</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>熟練計算未分組資料的算術平均數 μ = (Σxᵢ) / N。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 μ = (資料總和) / (資料個數)。</t>
-  </si>
-  <si>
     <t>stats_mean_calc_grouped</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>熟練計算已分組資料的算術平均數 μ = (Σfᵢxᵢ) / N (xᵢ 為組中點)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 μ = (Σ (組中點 × 次數)) / (總次數)。</t>
-  </si>
-  <si>
     <t>stats_median_calc_ungrouped</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>熟練計算未分組資料的中位數 (Me)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生必須先將資料「由小到大排序」，再找出最中間的數值。</t>
-  </si>
-  <si>
     <t>stats_median_calc_grouped</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練利用「以下累積次數」找出已分組資料的中位數所在的組別。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生先計算中位數位置 (N/2)，再利用「以下累積次數分配表」找出「首次」大於 N/2 的那一組。</t>
-  </si>
-  <si>
     <t>stats_mode_calc</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練找出資料中的眾數 (Mo)（出現次數最多的數值）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「眾數」是出現「次數」最多的數值，可能不只一個，也可能沒有。</t>
-  </si>
-  <si>
     <t>stats_range_quartile</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練計算全距 (R) 與四分位距 (Q.D. = Q₃ - Q₁)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 R = Max - Min，並檢查 Q₁ (第 25 百分位數) 與 Q₃ (第 75 百分位數) 的位置是否正確。</t>
-  </si>
-  <si>
     <t>stats_variance_stddev_ungrouped</t>
   </si>
   <si>
@@ -244,9 +216,6 @@
     <t>熟練計算未分組資料的變異數 σ² 與標準差 σ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 σ² = (Σ(xᵢ-μ)²) / N = (Σxᵢ²) / N - μ²，且 σ = √σ²。</t>
-  </si>
-  <si>
     <t>stats_variance_stddev_grouped</t>
   </si>
   <si>
@@ -259,9 +228,6 @@
     <t>熟練計算已分組資料的變異數 σ² 與標準差 σ (使用組中點)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 σ² = (Σfᵢ(xᵢ-μ)²) / N = (Σfᵢxᵢ²) / N - μ² (xᵢ 為組中點)。</t>
-  </si>
-  <si>
     <t>stats_percentile_calc</t>
   </si>
   <si>
@@ -274,23 +240,171 @@
     <t>熟練計算未分組資料的第 k 百分位數 (Pₖ)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生先排序，再計算位置 (N × k%)，若為整數則取該數與下一數之平均，若非整數則取下一位置的數。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「母體」是全體，「樣本」是從母體中抽出的部分。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查圖表的「標題」與「單位」，並正確讀取對應的數值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查「組距」的劃分是否正確，並確認「組中點」= (上限 + 下限) / 2。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「直方圖」的 x 軸是「連續」的數據（組距），長條之間沒有空隙。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「以下累積」是從最小組開始累加，「以上累積」是從最大組開始累加。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生正確劃分「莖」（高位數）與「葉」（低位數），並將「葉」由小到大排序。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 μ = (資料總和) / (資料個數)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 μ = (Σ (組中點 × 次數)) / (總次數)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生必須先將資料「由小到大排序」，再找出最中間的數值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先計算中位數位置 (N/2)，再利用「以下累積次數分配表」找出「首次」大於 N/2 的那一組。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「眾數」是出現「次數」最多的數值，可能不只一個，也可能沒有。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 R = Max - Min，並檢查 Q₁ (第 25 百分位數) 與 Q₃ (第 75 百分位數) 的位置是否正確。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 σ² = (Σ(xᵢ-μ)²) / N = (Σxᵢ²) / N - μ²，且 σ = √σ²。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 σ² = (Σfᵢ(xᵢ-μ)²) / N = (Σfᵢxᵢ²) / N - μ² (xᵢ 為組中點)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先排序，再計算位置 (N × k%)，若為整數則取該數與下一數之平均，若非整數則取下一位置的數。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -299,36 +413,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -518,20 +642,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -583,449 +712,463 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3640</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3640.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3650</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3650.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3660</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3660.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3670</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3670.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3680</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3690</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3680.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3700</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3690.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3710</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3700.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3720</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3710.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3730</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3740</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3720.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3750</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3730.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3760</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3740.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3770</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3750.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3760.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3770.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1034,16 +1177,18 @@
         <v>87</v>
       </c>
       <c r="H16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>3780.0</v>
-      </c>
+        <v>3780</v>
+      </c>
+      <c r="M16" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>